--- a/meta_stra_framwork/result/newzhongli/year/2018_pure.xlsx
+++ b/meta_stra_framwork/result/newzhongli/year/2018_pure.xlsx
@@ -663,7 +663,7 @@
         <v>1.041564003548037</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.6666668016</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -674,7 +674,7 @@
         <v>1.006666009622708</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.6666668015</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -685,7 +685,7 @@
         <v>0.9883314965968111</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.6666668012</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -696,7 +696,7 @@
         <v>0.9742319305444804</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.6666667977</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -707,7 +707,7 @@
         <v>0.9347495617218136</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.6666667945</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -718,7 +718,7 @@
         <v>0.9420009377809236</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.6666667916</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -729,7 +729,7 @@
         <v>0.9512085129004608</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>1.0000001251</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -740,7 +740,7 @@
         <v>0.9554494330009288</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>1.0000001246</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -751,7 +751,7 @@
         <v>0.9761761833511033</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>1.0000001263</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -762,7 +762,7 @@
         <v>0.9822866921719186</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.6666669607</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -773,7 +773,7 @@
         <v>0.9943972069658606</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.6666669627</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -784,7 +784,7 @@
         <v>0.9831975940244839</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.6666669665</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -795,7 +795,7 @@
         <v>0.9734434777934075</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.8333336264</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -806,7 +806,7 @@
         <v>0.9777262097821899</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.6666671143</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -817,7 +817,7 @@
         <v>0.971986034829303</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>1.0000004549</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -828,7 +828,7 @@
         <v>0.9727028100575511</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>1.0000004532</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -839,7 +839,7 @@
         <v>0.9824718591058826</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>1.0000004551</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -850,7 +850,7 @@
         <v>0.977105004584375</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>1.0000002984</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -861,7 +861,7 @@
         <v>0.9821045118014055</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>1.0000002994</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -872,7 +872,7 @@
         <v>0.9877073048355449</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>1.0000003008</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -883,7 +883,7 @@
         <v>0.9935400632554139</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>1.0000003002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -894,7 +894,7 @@
         <v>0.9886241798150122</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>1.0000002968</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -905,7 +905,7 @@
         <v>0.9829915211463626</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>1.0000002957</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -916,7 +916,7 @@
         <v>0.9829108839331847</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>1.0000002947</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -927,7 +927,7 @@
         <v>0.9765704097266399</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>1.0000002944</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -938,7 +938,7 @@
         <v>0.9793688196802586</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>1.0000002963</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -949,7 +949,7 @@
         <v>0.982770515450986</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>1.0000002946</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -960,7 +960,7 @@
         <v>0.9798765354669342</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>1.0000002916</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -971,7 +971,7 @@
         <v>0.9746590091179782</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>1.0000005588</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -982,7 +982,7 @@
         <v>0.941591778588132</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>1.0000005493</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -993,7 +993,7 @@
         <v>0.9359053617773636</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>1.0000005341</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1004,7 +1004,7 @@
         <v>0.9457401152216179</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>1.0000005377</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1015,7 +1015,7 @@
         <v>0.9324917197528321</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.6666677048</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1026,7 +1026,7 @@
         <v>0.9439123383895853</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0.6666677086</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1037,7 +1037,7 @@
         <v>0.9464120919981006</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0.7777788347</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1048,7 +1048,7 @@
         <v>0.9447037777041092</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0.666668058</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1059,7 +1059,7 @@
         <v>0.9367744517416146</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.7500013981</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1070,7 +1070,7 @@
         <v>0.9351258687166438</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.6666683319</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1081,7 +1081,7 @@
         <v>0.9372702212744861</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.6666683213</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1092,7 +1092,7 @@
         <v>0.952809310910215</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0.7777794418</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1103,7 +1103,7 @@
         <v>0.958113447599251</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.6666696982</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1114,7 +1114,7 @@
         <v>0.9497749624439645</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.7777808501</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1125,7 +1125,7 @@
         <v>0.9434703269988324</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.666670216</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1136,7 +1136,7 @@
         <v>0.9290153598958287</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0.6666702266</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>0.9159192791630455</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.6666695952</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1158,7 +1158,7 @@
         <v>0.9232662252525886</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>1.0000029449</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1169,7 +1169,7 @@
         <v>0.9310253170983744</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>1.0000029932</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1180,7 +1180,7 @@
         <v>0.9173349102388355</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>1.00000294</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1191,7 +1191,7 @@
         <v>0.9162806533406206</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>1.000002856</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1202,7 +1202,7 @@
         <v>0.9344747978843184</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>1.000002992</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1213,7 +1213,7 @@
         <v>0.9312015243419853</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>1.0000031118</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1224,7 +1224,7 @@
         <v>0.9183772208832464</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>1.0000033822</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1235,7 +1235,7 @@
         <v>0.9205275465679906</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>1.0000032602</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>0.9202139574056321</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>1.0000033008</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1257,7 +1257,7 @@
         <v>0.9260915142772667</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>1.0000032542</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1268,7 +1268,7 @@
         <v>0.9231557224049004</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>1.0000033589</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1279,7 +1279,7 @@
         <v>0.9367774383050655</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>1.0000034201</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1290,7 +1290,7 @@
         <v>0.9442020350443355</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>1.0000033582</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1301,7 +1301,7 @@
         <v>0.9435001926333426</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>1.0000033553</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>0.9480576884596201</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>1.0000034155</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1323,7 +1323,7 @@
         <v>0.9447276702117176</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>1.0000033631</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>0.9479441990484809</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>1.0000033393</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1345,7 +1345,7 @@
         <v>0.953346892331401</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>1.0000034447</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>0.9466121917493199</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>1.0000034901</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1367,7 +1367,7 @@
         <v>0.9420457362326892</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0.6666704985</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>0.9536993068186231</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0.6666705375999999</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1389,7 +1389,7 @@
         <v>0.9598337081470465</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0.6666705098</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1400,7 +1400,7 @@
         <v>0.9599860228830491</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0.6666706375</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1411,7 +1411,7 @@
         <v>0.9464300113788068</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0.6666706484</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>0.9421562390803774</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.6666706828</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1433,7 +1433,7 @@
         <v>0.9381691768732473</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.6666707082</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1444,7 +1444,7 @@
         <v>0.9363115344067042</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0.6666707943</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1455,7 +1455,7 @@
         <v>0.9319451786412929</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0.6666705405</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1466,7 +1466,7 @@
         <v>0.9083453542512238</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.6666705146</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1477,7 +1477,7 @@
         <v>0.9244817565771594</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0.6666705929</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1488,7 +1488,7 @@
         <v>0.9184100730812076</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>1.0000037793</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1499,7 +1499,7 @@
         <v>0.9232035074201169</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>1.0000038023</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1510,7 +1510,7 @@
         <v>0.9300785764843967</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0.8333373452</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1521,7 +1521,7 @@
         <v>0.9303682731391469</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0.6666712418</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1532,7 +1532,7 @@
         <v>0.9286719050989598</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.7777822618</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1543,7 +1543,7 @@
         <v>0.9160238088838317</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>0.6666712898</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1554,7 +1554,7 @@
         <v>0.9117321172046962</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0.6666711694</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1565,7 +1565,7 @@
         <v>0.9198018116493895</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0.6666712656</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1576,7 +1576,7 @@
         <v>0.9108421212962881</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0.8333378199</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1587,7 +1587,7 @@
         <v>0.9091576995099049</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>1.0000045344</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1598,7 +1598,7 @@
         <v>0.9025096092679038</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0.6666715044</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1609,7 +1609,7 @@
         <v>0.8684388934185102</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0.6666713448</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1620,7 +1620,7 @@
         <v>0.8708012651082779</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0.6666714467</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1631,7 +1631,7 @@
         <v>0.8588789038117509</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>1.0000043693</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1642,7 +1642,7 @@
         <v>0.8630451598259432</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>1.0000043801</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1653,7 +1653,7 @@
         <v>0.8539600338078983</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>1.0000043831</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1664,7 +1664,7 @@
         <v>0.8495309602100152</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>1.0000043475</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1675,7 +1675,7 @@
         <v>0.8401740569179262</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>1.0000041968</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1686,7 +1686,7 @@
         <v>0.8323253681686095</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>1.0000040697</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1697,7 +1697,7 @@
         <v>0.850400050174266</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>1.0000043358</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1708,7 +1708,7 @@
         <v>0.8289386052151371</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>1.0000043418</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1719,7 +1719,7 @@
         <v>0.8323223816051584</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>1.0000043037</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1730,7 +1730,7 @@
         <v>0.8240316814650887</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>1.0000042805</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1741,7 +1741,7 @@
         <v>0.8164906087512283</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>1.0000042025</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1752,7 +1752,7 @@
         <v>0.8204776709583583</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>1.0000041824</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1763,7 +1763,7 @@
         <v>0.8407504636639759</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>1.0000044489</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1774,7 +1774,7 @@
         <v>0.8444896411046702</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>1.0000042312</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1785,7 +1785,7 @@
         <v>0.8295986357378156</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>1.0000042762</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1796,7 +1796,7 @@
         <v>0.8474851642460569</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>1.0000040032</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1807,7 +1807,7 @@
         <v>0.8455498711297871</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>1.0000037395</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1818,7 +1818,7 @@
         <v>0.8404309013747152</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>1.0000037085</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1829,7 +1829,7 @@
         <v>0.8356792789241204</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>1.0000037001</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1840,7 +1840,7 @@
         <v>0.8324328844528467</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>1.0000036295</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1851,7 +1851,7 @@
         <v>0.828039649616376</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0.6666703345</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1862,7 +1862,7 @@
         <v>0.8449794375106396</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>0.6666703244</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1873,7 +1873,7 @@
         <v>0.8540197650769189</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0.6666700464999999</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1884,7 +1884,7 @@
         <v>0.8677639300785764</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>0.6666699734</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1895,7 +1895,7 @@
         <v>0.8671934964594291</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>0.6666701225</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1906,7 +1906,7 @@
         <v>0.8607962775473147</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0.6666701051</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1917,7 +1917,7 @@
         <v>0.8582158867256215</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0.6666701011</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1928,7 +1928,7 @@
         <v>0.8568599869188521</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0.6666699314</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1939,7 +1939,7 @@
         <v>0.8590551110553619</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>1.0000033055</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1950,7 +1950,7 @@
         <v>0.8435638064348497</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>1.0000032353</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1961,7 +1961,7 @@
         <v>0.8266867363730577</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>1.0000032905</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1972,7 +1972,7 @@
         <v>0.8184497943751065</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>1.0000031952</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1983,7 +1983,7 @@
         <v>0.8079131985198591</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>1.0000030229</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1994,7 +1994,7 @@
         <v>0.830076485889981</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>1.0000031999</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2005,7 +2005,7 @@
         <v>0.8195339169078317</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>1.0000031319</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2016,7 +2016,7 @@
         <v>0.8345593176299828</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>1.000003262</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2027,7 +2027,7 @@
         <v>0.8348370680309288</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>1.0000030079</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2038,7 +2038,7 @@
         <v>0.8320177521331529</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>1.0000007962</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2049,7 +2049,7 @@
         <v>0.8305513494786954</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>1.0000007888</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2060,7 +2060,7 @@
         <v>0.8133188783662304</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>1.000000778</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>0.8079221582102123</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>1.0000007738</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2082,7 +2082,7 @@
         <v>0.7971048253905678</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>1.0000006512</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2093,7 +2093,7 @@
         <v>0.8059151875711175</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>1.0000006507</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2104,7 +2104,7 @@
         <v>0.8164756759339731</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>1.0000006579</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2115,7 +2115,7 @@
         <v>0.8107355009810862</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>0.8333340996</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2126,7 +2126,7 @@
         <v>0.8137250509955709</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>0.6666674862</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2137,7 +2137,7 @@
         <v>0.8151615880155182</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>0.7777785943</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2148,7 +2148,7 @@
         <v>0.8305334300979892</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>0.750000885</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2159,7 +2159,7 @@
         <v>0.8296613535702873</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0.6666676021</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2170,7 +2170,7 @@
         <v>0.8270660299313389</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0.6666676014</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2181,7 +2181,7 @@
         <v>0.8176434222433272</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>0.6666675904</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2192,7 +2192,7 @@
         <v>0.8139132044929861</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>0.6666675914</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2203,7 +2203,7 @@
         <v>0.8125632778131188</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>0.6666675965</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2214,7 +2214,7 @@
         <v>0.8214781697144546</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>0.6666676025</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2225,7 +2225,7 @@
         <v>0.8076683003168744</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>0.6666675901</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2236,7 +2236,7 @@
         <v>0.8038604319168063</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0.666667583</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2247,7 +2247,7 @@
         <v>0.8070590413728636</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>1.0000009248</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2258,7 +2258,7 @@
         <v>0.7972571401265706</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>1.0000009057</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2269,7 +2269,7 @@
         <v>0.7958594284314868</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>1.0000009149</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2280,7 +2280,7 @@
         <v>0.7932641047925384</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>1.0000009166</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>0.8023641636278384</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0.6666680346</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2302,7 +2302,7 @@
         <v>0.8008888012830276</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0.6666680095</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2313,7 +2313,7 @@
         <v>0.7919739093816918</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0.6666679934</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2324,7 +2324,7 @@
         <v>0.8063571989618705</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0.8333346828</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2335,7 +2335,7 @@
         <v>0.815585680025565</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>0.6666684199</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>0.8151048433099485</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0.7500017378</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>0.8354851522998032</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0.6666688089</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>0.830605107620814</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0.7333354805</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>0.8382716159996177</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>0.6666693401</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>0.8337798245692629</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0.666669326</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>0.8426140792574208</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>0.6666693427</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>0.8113029480367826</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0.6666692499</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>0.8126469015897478</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>0.666669204</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>0.8140894117365971</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0.6666692136</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>0.7715667213207779</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0.6666690732</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>0.7785702126134521</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>1.0000024582</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>0.7669793598599899</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>1.0000024398</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>0.7604776112270893</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>1.0000023967</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>0.7650410801802691</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>1.0000023798</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>0.7425851095919459</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>1.0000023457</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>0.7617140484958173</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>1.000002371</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>0.7928967574880612</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>1.000001496</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>0.7749624439646032</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>1.0000009553</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>0.777492063207629</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>1.000000968</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2555,7 +2555,7 @@
         <v>0.7776413913801806</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>1.0000009795</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2566,7 +2566,7 @@
         <v>0.7761630424719188</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>1.0000009623</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2577,7 +2577,7 @@
         <v>0.759214294887302</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>0.6666677701</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2588,7 +2588,7 @@
         <v>0.7669644270427348</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0.6666677862</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>0.7773367619081752</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>0.8333344622</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2610,7 +2610,7 @@
         <v>0.7783701128622328</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>1.0000013162</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>0.7993477345422942</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>1.0000013729</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2632,7 +2632,7 @@
         <v>0.7960475819289018</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>1.0000013563</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2643,7 +2643,7 @@
         <v>0.7942347379141244</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>1.0000013479</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>0.7888529505753615</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>1.0000013379</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2665,7 +2665,7 @@
         <v>0.7871476228448212</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>1.0000013302</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2676,7 +2676,7 @@
         <v>0.7761690155988209</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>1.0000013002</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2687,7 +2687,7 @@
         <v>0.7856214889213429</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>1.0000013148</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2698,7 +2698,7 @@
         <v>0.7928967574880612</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>1.0000013214</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2709,7 +2709,7 @@
         <v>0.7861351778349206</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>0.6666680965</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2720,7 +2720,7 @@
         <v>0.7968659003144851</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>0.666668115</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2731,7 +2731,7 @@
         <v>0.8001332007299161</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>0.6666681123</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>0.8074204155504386</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0.666668118</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2753,7 +2753,7 @@
         <v>0.7901998906917777</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0.6666680927999999</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2764,7 +2764,7 @@
         <v>0.7918902856050629</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>1.0000014254</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2775,7 +2775,7 @@
         <v>0.7900744550268343</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>1.0000014824</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>0.7703780690672664</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>1.0000014458</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2797,7 +2797,7 @@
         <v>0.769282000280737</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>1.0000014443</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2808,7 +2808,7 @@
         <v>0.7689445186107701</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>1.0000014313</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2819,7 +2819,7 @@
         <v>0.7770261593092676</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>1.0000014444</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2830,7 +2830,7 @@
         <v>0.7667822466722217</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>1.0000014277</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2841,7 +2841,7 @@
         <v>0.7729793658331169</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>1.0000014402</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2852,7 +2852,7 @@
         <v>0.7928728649804531</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>1.0000007868</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2863,7 +2863,7 @@
         <v>0.7962058697918067</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0.8333341696</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2874,7 +2874,7 @@
         <v>0.7913825698183871</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>0.6666675387</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2885,7 +2885,7 @@
         <v>0.7780535371364232</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0.8888896294</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2896,7 +2896,7 @@
         <v>0.7782655831414466</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0.6666677362</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2907,7 +2907,7 @@
         <v>0.7719012164272936</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0.7777788344</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2918,7 +2918,7 @@
         <v>0.7747414382692268</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0.666667806</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2929,7 +2929,7 @@
         <v>0.7771486084107601</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>0.6666677639</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -2940,7 +2940,7 @@
         <v>0.7866757458195579</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>0.8333341062</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -2951,7 +2951,7 @@
         <v>0.7746369085484405</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>0.8333341976</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -2962,7 +2962,7 @@
         <v>0.7759002248882279</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0.6666676408</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -2973,7 +2973,7 @@
         <v>0.7695328716106239</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>0.6666676279</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -2984,7 +2984,7 @@
         <v>0.7614422712217732</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0.6666676181</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -2995,7 +2995,7 @@
         <v>0.7574731283953493</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>0.6666676139</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3006,7 +3006,7 @@
         <v>0.7514940283663797</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0.6666675996</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3017,7 +3017,7 @@
         <v>0.7547075706396921</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>0.8333342752</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3028,7 +3028,7 @@
         <v>0.748080386341848</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>0.6666676397</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3039,7 +3039,7 @@
         <v>0.7461301604083229</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0.8333342977</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3050,7 +3050,7 @@
         <v>0.7415905839627517</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>0.7333341259</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3061,7 +3061,7 @@
         <v>0.7448190590533191</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>0.6666677421</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3072,7 +3072,7 @@
         <v>0.7362745010199114</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>0.6666677282</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3083,7 +3083,7 @@
         <v>0.7359967506189653</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>0.7777788366</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3094,7 +3094,7 @@
         <v>0.751081882610137</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>0.6666678549</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3105,7 +3105,7 @@
         <v>0.7565234012179206</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>0.7777787557</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3116,7 +3116,7 @@
         <v>0.7545433096498851</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>0.6666677116</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3127,7 +3127,7 @@
         <v>0.7598862716637846</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>0.7777787284</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3138,7 +3138,7 @@
         <v>0.7571237004715784</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>0.6666682108</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3149,7 +3149,7 @@
         <v>0.7627175338153647</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>0.66666822</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3160,7 +3160,7 @@
         <v>0.7573238002227977</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>0.666668193</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3171,7 +3171,7 @@
         <v>0.7676513366364724</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>0.6666682229999999</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3182,7 +3182,7 @@
         <v>0.7676722425806298</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>0.8333347981</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3193,7 +3193,7 @@
         <v>0.7644527271804152</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>0.6666681868</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3204,7 +3204,7 @@
         <v>0.7753148584518254</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>0.666668175</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3215,7 +3215,7 @@
         <v>0.7796453754558244</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>0.6666681823</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3226,7 +3226,7 @@
         <v>0.770443773463189</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>0.6666681642</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3237,7 +3237,7 @@
         <v>0.7708320267118235</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>0.6666681563</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3248,7 +3248,7 @@
         <v>0.7740246630409787</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0.6666681356</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3259,7 +3259,7 @@
         <v>0.7770201861823655</v>
       </c>
       <c r="C262">
-        <v>1.00000011</v>
+        <v>0.6666681454</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3270,7 +3270,7 @@
         <v>0.7756045551065756</v>
       </c>
       <c r="C263">
-        <v>1.0000001094</v>
+        <v>1.000001451</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3281,7 +3281,7 @@
         <v>0.7747892232844433</v>
       </c>
       <c r="C264">
-        <v>1.00000011</v>
+        <v>1.0000014443</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3292,7 +3292,7 @@
         <v>0.7692133093213632</v>
       </c>
       <c r="C265">
-        <v>1.0000001095</v>
+        <v>1.000001417</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3303,7 +3303,7 @@
         <v>0.7718982298638426</v>
       </c>
       <c r="C266">
-        <v>1.000000111</v>
+        <v>1.000001417</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3314,7 +3314,7 @@
         <v>0.7819510024400224</v>
       </c>
       <c r="C267">
-        <v>1.000000112</v>
+        <v>1.0000014333</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3325,7 +3325,7 @@
         <v>0.7926040742698599</v>
       </c>
       <c r="C268">
-        <v>1.0000001121</v>
+        <v>1.0000006472</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3336,7 +3336,7 @@
         <v>0.7979769019182696</v>
       </c>
       <c r="C269">
-        <v>1.0000001119</v>
+        <v>1.0000006506</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3347,7 +3347,7 @@
         <v>0.812664820970454</v>
       </c>
       <c r="C270">
-        <v>1.0000001138</v>
+        <v>1.0000006417</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3358,7 +3358,7 @@
         <v>0.8122556617776623</v>
       </c>
       <c r="C271">
-        <v>1.0000001125</v>
+        <v>1.0000006398</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3369,7 +3369,7 @@
         <v>0.8011127935418552</v>
       </c>
       <c r="C272">
-        <v>1.0000001095</v>
+        <v>1.0000006338</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3380,7 +3380,7 @@
         <v>0.8226070906989456</v>
       </c>
       <c r="C273">
-        <v>1.0000001136</v>
+        <v>1.0000006549</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3391,7 +3391,7 @@
         <v>0.8229923573841289</v>
       </c>
       <c r="C274">
-        <v>1.0000001127</v>
+        <v>1.0000006584</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3402,7 +3402,7 @@
         <v>0.8246558732263546</v>
       </c>
       <c r="C275">
-        <v>1.0000001141</v>
+        <v>1.0000006585</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3413,7 +3413,7 @@
         <v>0.8218425304554808</v>
       </c>
       <c r="C276">
-        <v>1.0000001136</v>
+        <v>1.0000006522</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3424,7 +3424,7 @@
         <v>0.837501082629251</v>
       </c>
       <c r="C277">
-        <v>1.0000001154</v>
+        <v>1.0000006626</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3435,7 +3435,7 @@
         <v>0.8844050616277369</v>
       </c>
       <c r="C278">
-        <v>1.0000001255</v>
+        <v>1.0000006945</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3446,7 +3446,7 @@
         <v>0.878503612248494</v>
       </c>
       <c r="C279">
-        <v>1.000000122</v>
+        <v>1.0000007021</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3457,7 +3457,7 @@
         <v>0.8821770852932657</v>
       </c>
       <c r="C280">
-        <v>1.000000124</v>
+        <v>1.0000006988</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>0.878333378131785</v>
       </c>
       <c r="C281">
-        <v>1.0000001236</v>
+        <v>1.0000007064</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3479,7 +3479,7 @@
         <v>0.8941770972395194</v>
       </c>
       <c r="C282">
-        <v>1.0000001276</v>
+        <v>1.0000007065</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3490,7 +3490,7 @@
         <v>0.9042059773080909</v>
       </c>
       <c r="C283">
-        <v>1.0000001299</v>
+        <v>0.6666678088</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3501,7 +3501,7 @@
         <v>0.912171142031998</v>
       </c>
       <c r="C284">
-        <v>1.0000001306</v>
+        <v>0.6666678324999999</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3512,7 +3512,7 @@
         <v>0.9264618481451947</v>
       </c>
       <c r="C285">
-        <v>1.0000001308</v>
+        <v>0.6666678346</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3523,7 +3523,7 @@
         <v>0.9277520435560415</v>
       </c>
       <c r="C286">
-        <v>1.0000001274</v>
+        <v>0.6666678275</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3534,7 +3534,7 @@
         <v>0.8869675330687239</v>
       </c>
       <c r="C287">
-        <v>1.000000123</v>
+        <v>1.0000011265</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3545,7 +3545,7 @@
         <v>0.9040297700644798</v>
       </c>
       <c r="C288">
-        <v>1.0000001232</v>
+        <v>1.0000011823</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3556,7 +3556,7 @@
         <v>0.9139809994833246</v>
       </c>
       <c r="C289">
-        <v>1.0000001236</v>
+        <v>1.0000012146</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3567,7 +3567,7 @@
         <v>0.9040178238106757</v>
       </c>
       <c r="C290">
-        <v>1.0000001237</v>
+        <v>1.0000012142</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3578,7 +3578,7 @@
         <v>0.8931885447372272</v>
       </c>
       <c r="C291">
-        <v>1.0000001243</v>
+        <v>1.0000011931</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3589,7 +3589,7 @@
         <v>0.9024648108161382</v>
       </c>
       <c r="C292">
-        <v>1.000000125</v>
+        <v>1.0000012102</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3600,7 +3600,7 @@
         <v>0.9247654801050076</v>
       </c>
       <c r="C293">
-        <v>1.0000001291</v>
+        <v>1.0000012588</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3611,7 +3611,7 @@
         <v>0.9231407895876452</v>
       </c>
       <c r="C294">
-        <v>1.0000001279</v>
+        <v>1.0000012442</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3622,7 +3622,7 @@
         <v>0.92303924643031</v>
       </c>
       <c r="C295">
-        <v>1.0000001275</v>
+        <v>1.0000012244</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3633,7 +3633,7 @@
         <v>0.9262707080843287</v>
       </c>
       <c r="C296">
-        <v>1.0000001269</v>
+        <v>1.0000012327</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3644,7 +3644,7 @@
         <v>0.9270740936526567</v>
       </c>
       <c r="C297">
-        <v>1.0000001259</v>
+        <v>1.0000012352</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3655,7 +3655,7 @@
         <v>0.9088202178399382</v>
       </c>
       <c r="C298">
-        <v>1.0000001211</v>
+        <v>1.0000012266</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3666,7 +3666,7 @@
         <v>0.8951029319093399</v>
       </c>
       <c r="C299">
-        <v>1.000000121</v>
+        <v>1.0000011956</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3677,7 +3677,7 @@
         <v>0.9027545074708885</v>
       </c>
       <c r="C300">
-        <v>1.0000001238</v>
+        <v>1.000001216</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3688,7 +3688,7 @@
         <v>0.8944578342039167</v>
       </c>
       <c r="C301">
-        <v>1.0000001222</v>
+        <v>1.0000012037</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3699,7 +3699,7 @@
         <v>0.9230750851917225</v>
       </c>
       <c r="C302">
-        <v>1.0000001282</v>
+        <v>1.0000012381</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3710,7 +3710,7 @@
         <v>0.9468481302619516</v>
       </c>
       <c r="C303">
-        <v>1.0000001318</v>
+        <v>1.0000012911</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3721,7 +3721,7 @@
         <v>0.9487774502513194</v>
       </c>
       <c r="C304">
-        <v>1.0000001336</v>
+        <v>1.0000013111</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3732,7 +3732,7 @@
         <v>0.9605684027560009</v>
       </c>
       <c r="C305">
-        <v>1.0000001344</v>
+        <v>0.6666683655</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3743,7 +3743,7 @@
         <v>0.9696087303222801</v>
       </c>
       <c r="C306">
-        <v>1.0000001386</v>
+        <v>1.0000017033</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3754,7 +3754,7 @@
         <v>0.9690830951548981</v>
       </c>
       <c r="C307">
-        <v>1.0000001396</v>
+        <v>1.000001681</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3765,7 +3765,7 @@
         <v>0.9675450149776157</v>
       </c>
       <c r="C308">
-        <v>1.0000001381</v>
+        <v>1.0000016875</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -3776,7 +3776,7 @@
         <v>0.9682229648810003</v>
       </c>
       <c r="C309">
-        <v>1.0000001373</v>
+        <v>1.0000016943</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -3787,7 +3787,7 @@
         <v>0.9527017946259777</v>
       </c>
       <c r="C310">
-        <v>1.0000001354</v>
+        <v>1.0000016504</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3798,7 +3798,7 @@
         <v>0.9523045816869903</v>
       </c>
       <c r="C311">
-        <v>1.0000001342</v>
+        <v>1.0000016371</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -3809,7 +3809,7 @@
         <v>0.9490671469060696</v>
       </c>
       <c r="C312">
-        <v>1.0000001369</v>
+        <v>1.0000016369</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3820,7 +3820,7 @@
         <v>0.9717082844283568</v>
       </c>
       <c r="C313">
-        <v>1.0000001458</v>
+        <v>1.0000016767</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -3831,7 +3831,7 @@
         <v>0.974551492833741</v>
       </c>
       <c r="C314">
-        <v>1.0000001435</v>
+        <v>1.0000016694</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3842,7 +3842,7 @@
         <v>0.9706928528550053</v>
       </c>
       <c r="C315">
-        <v>1.0000001434</v>
+        <v>1.0000017078</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -3853,7 +3853,7 @@
         <v>0.976845173564135</v>
       </c>
       <c r="C316">
-        <v>1.0000001473</v>
+        <v>1.0000017293</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -3864,7 +3864,7 @@
         <v>0.9601920957611705</v>
       </c>
       <c r="C317">
-        <v>1.0000001415</v>
+        <v>1.0000017181</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -3875,7 +3875,7 @@
         <v>0.95527919888422</v>
       </c>
       <c r="C318">
-        <v>1.0000001407</v>
+        <v>1.0000017224</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -3886,7 +3886,7 @@
         <v>0.9561811410464321</v>
       </c>
       <c r="C319">
-        <v>1.0000001444</v>
+        <v>1.0000017167</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -3897,7 +3897,7 @@
         <v>0.9329516505242912</v>
       </c>
       <c r="C320">
-        <v>1.0000001413</v>
+        <v>1.0000016809</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -3908,7 +3908,7 @@
         <v>0.9217729435270717</v>
       </c>
       <c r="C321">
-        <v>1.0000001379</v>
+        <v>1.0000016713</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -3919,7 +3919,7 @@
         <v>0.914635056879101</v>
       </c>
       <c r="C322">
-        <v>1.000000141</v>
+        <v>1.0000016465</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3930,7 +3930,7 @@
         <v>0.9193657733855385</v>
       </c>
       <c r="C323">
-        <v>1.0000001385</v>
+        <v>1.0000016088</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3941,7 +3941,7 @@
         <v>0.8680327207891696</v>
       </c>
       <c r="C324">
-        <v>1.0000001287</v>
+        <v>1.0000014709</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3952,7 +3952,7 @@
         <v>0.8739849417470799</v>
       </c>
       <c r="C325">
-        <v>1.0000001295</v>
+        <v>1.0000014525</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3963,7 +3963,7 @@
         <v>0.8642397852063567</v>
       </c>
       <c r="C326">
-        <v>1.000000126</v>
+        <v>1.0000014589</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3974,7 +3974,7 @@
         <v>0.8514555016978614</v>
       </c>
       <c r="C327">
-        <v>1.0000001216</v>
+        <v>1.0000014386</v>
       </c>
     </row>
   </sheetData>
